--- a/borrow_return.xlsx
+++ b/borrow_return.xlsx
@@ -47,10 +47,10 @@
     <t>Name of Member</t>
   </si>
   <si>
-    <t>adfaf</t>
+    <t>Tôi Thấy Hoa Vàng Trên Cỏ Xanh</t>
   </si>
   <si>
-    <t>Văn Hoàng Phúc</t>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -122,13 +122,13 @@
     </row>
     <row r="5" ht="20.0" customHeight="true">
       <c r="A5" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>44378.0</v>
+        <v>44219.0</v>
       </c>
       <c r="C5" t="n">
-        <v>44378.0</v>
+        <v>44222.0</v>
       </c>
       <c r="D5" t="n">
         <v>1.0</v>
@@ -158,16 +158,16 @@
     </row>
     <row r="9" ht="20.0" customHeight="true">
       <c r="A9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
